--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -32,6 +32,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,10 +114,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -132,62 +133,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>555185047452</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>555185047452</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>555185047452</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>555185047452</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>555185047452</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>555185047452</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>555185047452</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>555185047452</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>555185047452</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>555185047452</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>555185047452</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>555185047452</v>
+        <v>555181612772</v>
       </c>
     </row>
   </sheetData>
